--- a/assets/stages/maps/MapEditor/Room2.xlsx
+++ b/assets/stages/maps/MapEditor/Room2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0153F-034E-44E7-8E9E-09A983E1B42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A940C0A-7151-416F-A4A7-828D08A1F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,6 +117,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FF9C0006"/>
@@ -131,20 +145,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2045,25 +2045,25 @@
         <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -2143,25 +2143,25 @@
         <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -2199,17 +2199,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 B2:B16 A3:Z4 C3:U5 Z3:Z10 C4:AF4 V4:W6 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 G6:U6 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 C12:AF18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16 Z3:Z10 V4:W6 C4:F17 G6:U6 S6:AF7 M6:M8 R6:R8 N8:Y8 S8:S11 C8:G16 U11:V12 C3:U5 C6:Q7 C5:H14 I6:I8 A5:B18 C7:P11 C12:AF18 Q9:Z11 A3:Z4 AC1:AF3 V5:AF12 U5:AF5 C4:AF4 C2:AE3 A1:AC2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/stages/maps/MapEditor/Room2.xlsx
+++ b/assets/stages/maps/MapEditor/Room2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A940C0A-7151-416F-A4A7-828D08A1F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC75434-E2EF-42C0-AA32-9291381DE986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,82 +536,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="1">
         <v>-1</v>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>-1</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="AE3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
@@ -819,7 +819,7 @@
         <v>-1</v>
       </c>
       <c r="AE4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>-1</v>
@@ -917,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>-1</v>
@@ -1015,7 +1015,7 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>-1</v>
@@ -1113,7 +1113,7 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>-1</v>
@@ -1211,7 +1211,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>-1</v>
@@ -1401,13 +1401,13 @@
         <v>-1</v>
       </c>
       <c r="AC10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -1448,7 +1448,7 @@
         <v>-1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="1">
         <v>-1</v>
@@ -1478,16 +1478,16 @@
         <v>-1</v>
       </c>
       <c r="V11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="1">
         <v>-1</v>
@@ -1505,7 +1505,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -1546,16 +1546,16 @@
         <v>-1</v>
       </c>
       <c r="L12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="1">
         <v>-1</v>
@@ -1576,7 +1576,7 @@
         <v>-1</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="1">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="1">
         <v>-1</v>
@@ -1603,7 +1603,7 @@
         <v>-1</v>
       </c>
       <c r="AE12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -1635,7 +1635,7 @@
         <v>-1</v>
       </c>
       <c r="I13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1">
         <v>-1</v>
@@ -1701,7 +1701,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="1">
         <v>-1</v>
@@ -1799,7 +1799,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>-1</v>
@@ -1897,7 +1897,7 @@
         <v>-1</v>
       </c>
       <c r="AE15" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="1">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>-1</v>
@@ -1995,7 +1995,7 @@
         <v>-1</v>
       </c>
       <c r="AE16" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF16" s="1">
         <v>1</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1">
         <v>-1</v>
@@ -2066,10 +2066,10 @@
         <v>-1</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1">
         <v>1</v>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
         <v>-1</v>
@@ -2164,7 +2164,7 @@
         <v>-1</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" s="1">
         <v>1</v>
@@ -2199,7 +2199,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AC2 AC1:AF3 C2:AE3 B2:B16 A3:Z4 C3:U5 Z3:Z10 C4:AF4 V4:W6 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 G6:U6 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 C12:AF18">
+  <conditionalFormatting sqref="A1:AC2 AC1:AF3 A3:Z4 C3:U5 Z3:Z10 C4:AF4 V4:W6 C4:F17 U5:AF5 V5:AF12 C5:H14 A5:B18 G6:U6 C6:Q7 S6:AF7 I6:I8 M6:M8 R6:R8 C7:P11 N8:Y8 S8:S11 C8:G16 U11:V12 AE11:AE16 AE4:AE8 B2:B16 C2:AE3 C12:AF18 Q9:Z11">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room2.xlsx
+++ b/assets/stages/maps/MapEditor/Room2.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2918,4 +2919,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room2.xlsx
+++ b/assets/stages/maps/MapEditor/Room2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B43900-1806-4DF5-9554-5DFB9393D536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F0F90-F222-45AA-A225-A241EC0C86EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="23040" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="14399" windowHeight="8812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -426,12 +426,12 @@
       <selection activeCell="AB13" sqref="AB13:AC14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2219,16 +2219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI5" activeCellId="1" sqref="AC1 AI5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2265,7 +2265,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2298,10 +2298,12 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2331,7 +2333,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2364,7 +2366,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2398,7 +2400,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2432,7 +2434,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2466,7 +2468,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2500,7 +2502,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2534,7 +2536,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2568,7 +2570,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2601,7 +2603,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2634,7 +2636,7 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2667,7 +2669,7 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2700,7 +2702,7 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2734,7 +2736,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2768,7 +2770,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2802,7 +2804,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2849,7 +2851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2864,14 +2866,14 @@
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="29:30" x14ac:dyDescent="0.4">
       <c r="AD2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="29:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="29:30" x14ac:dyDescent="0.4">
       <c r="AC10">
         <v>8</v>
       </c>
@@ -2886,13 +2888,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D4:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:29" x14ac:dyDescent="0.4">
       <c r="D4">
         <v>0</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:29" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>0</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:29" x14ac:dyDescent="0.4">
       <c r="AB13">
         <v>0</v>
       </c>
@@ -2916,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:29" x14ac:dyDescent="0.4">
       <c r="AB14">
         <v>0</v>
       </c>
